--- a/TestData/ExtractData.xlsx
+++ b/TestData/ExtractData.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB360008-8732-46B4-BC7D-D6107FA6F487}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{14AC7519-A222-462A-9FA6-221454A80B15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18984" windowHeight="4836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="DDF" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:S15"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -420,7 +421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -486,7 +487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8835602-D757-4EC7-9236-8F70349AF9EF}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
